--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.90597433333333</v>
+        <v>4.592460999999999</v>
       </c>
       <c r="H2">
-        <v>35.717923</v>
+        <v>13.777383</v>
       </c>
       <c r="I2">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="J2">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N2">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>87.1747027131471</v>
+        <v>2.421679695496333</v>
       </c>
       <c r="R2">
-        <v>784.5723244183239</v>
+        <v>21.79511725946699</v>
       </c>
       <c r="S2">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
       <c r="T2">
-        <v>0.008895149679642379</v>
+        <v>0.003302946473568516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>3615.307862</v>
       </c>
       <c r="I3">
-        <v>0.9003520325209805</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="J3">
-        <v>0.9003520325209804</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N3">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>8823.676227936139</v>
+        <v>635.4702952203376</v>
       </c>
       <c r="R3">
-        <v>79413.08605142524</v>
+        <v>5719.232656983037</v>
       </c>
       <c r="S3">
-        <v>0.9003520325209805</v>
+        <v>0.8667225374846176</v>
       </c>
       <c r="T3">
-        <v>0.9003520325209804</v>
+        <v>0.8667225374846176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>121.4707743333333</v>
+        <v>180.7183073333333</v>
       </c>
       <c r="H4">
-        <v>364.412323</v>
+        <v>542.1549220000001</v>
       </c>
       <c r="I4">
-        <v>0.09075281779937723</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="J4">
-        <v>0.09075281779937722</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N4">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>889.400425733947</v>
+        <v>95.29571518921978</v>
       </c>
       <c r="R4">
-        <v>8004.603831605523</v>
+        <v>857.661436702978</v>
       </c>
       <c r="S4">
-        <v>0.09075281779937723</v>
+        <v>0.1299745160418139</v>
       </c>
       <c r="T4">
-        <v>0.09075281779937722</v>
+        <v>0.1299745160418139</v>
       </c>
     </row>
   </sheetData>
